--- a/app_wams/public/export/excel/laporan-project_acdc.xlsx
+++ b/app_wams/public/export/excel/laporan-project_acdc.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t>Export Laporan Transaction Maker ACDC Periode 01/Dec/22 - 31/Dec/22</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>Export Laporan Transaction Maker ACDC Periode 01/Jan/23 - 31/Jan/23</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -43,7 +43,40 @@
     <t>Tanggal Pengajuan</t>
   </si>
   <si>
-    <t>Export Laporan Data Project ACDC Periode 01/Dec/22 - 31/Dec/22</t>
+    <t>Maintain</t>
+  </si>
+  <si>
+    <t>Bea Cukai</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Jono</t>
+  </si>
+  <si>
+    <t>Beli permen</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>Renewal Redhat</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Jon1</t>
+  </si>
+  <si>
+    <t>beli permen</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>Export Laporan Data Project ACDC Periode 01/Jan/23 - 31/Jan/23</t>
   </si>
   <si>
     <t>Total Nominal Project ACDC</t>
@@ -61,9 +94,18 @@
     <t>Client name</t>
   </si>
   <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>Principal name</t>
   </si>
   <si>
+    <t>AP</t>
+  </si>
+  <si>
     <t>Bmt</t>
   </si>
   <si>
@@ -73,6 +115,9 @@
     <t>Lain</t>
   </si>
   <si>
+    <t>1.000.000</t>
+  </si>
+  <si>
     <t>Subtotal</t>
   </si>
   <si>
@@ -89,6 +134,15 @@
   </si>
   <si>
     <t>Created at</t>
+  </si>
+  <si>
+    <t>2023-01-19 20:12:08</t>
+  </si>
+  <si>
+    <t>2023-01-22 01:49:16</t>
+  </si>
+  <si>
+    <t>2023-01-22 01:52:35</t>
   </si>
 </sst>
 </file>
@@ -439,7 +493,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:H2"/>
@@ -489,6 +543,60 @@
         <v>7</v>
       </c>
       <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1234565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>123213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>2000000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>80000123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>10000000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -514,7 +622,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4:M4"/>
@@ -524,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -541,51 +649,174 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>1234565</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>90000000</v>
+      </c>
+      <c r="F5">
+        <v>1000000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>92000000</v>
+      </c>
+      <c r="I5">
+        <v>4600000</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>20000000</v>
+      </c>
+      <c r="L5">
+        <v>67400000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>123213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>800000000</v>
+      </c>
+      <c r="F6">
+        <v>250000000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>1051000000</v>
+      </c>
+      <c r="I6">
+        <v>84080000</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>6000000</v>
+      </c>
+      <c r="L6">
+        <v>960920000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>80000123</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>800000000</v>
+      </c>
+      <c r="F7">
+        <v>250000000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>1051000000</v>
+      </c>
+      <c r="I7">
+        <v>84080000</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>6000000</v>
+      </c>
+      <c r="L7">
+        <v>960920000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
